--- a/UAT (User Acceptance Testing) with Python and Excel/User Acceptance Testing Template.xlsx
+++ b/UAT (User Acceptance Testing) with Python and Excel/User Acceptance Testing Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4C10D-1E2C-4368-97FD-395CB45E66E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356CB73-AAFE-472A-8D33-20B3946C4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{F36EB7C3-9595-4790-A8E1-0AE2100D2C30}"/>
   </bookViews>
@@ -489,6 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F0C4A3-85B9-48EB-BCB6-E73704D9FAA1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
